--- a/data/pca/factorExposure/factorExposure_2014-05-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-05-23.xlsx
@@ -717,16 +717,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.005901017930995398</v>
+        <v>-0.00203582429627216</v>
       </c>
       <c r="C2">
-        <v>0.1334927834314463</v>
+        <v>-0.02017687042964411</v>
       </c>
       <c r="D2">
-        <v>0.05005341431963239</v>
+        <v>-0.07660908545495072</v>
       </c>
       <c r="E2">
-        <v>-0.2477524580021707</v>
+        <v>0.02653872398805683</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -751,16 +751,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.0111235788089255</v>
+        <v>-0.002215093843661483</v>
       </c>
       <c r="C4">
-        <v>0.1677497651108067</v>
+        <v>-0.03087817752565985</v>
       </c>
       <c r="D4">
-        <v>0.04849066341952341</v>
+        <v>-0.1280867461885189</v>
       </c>
       <c r="E4">
-        <v>-0.04515921799659746</v>
+        <v>0.04731806987966847</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -785,16 +785,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.03664344356219967</v>
+        <v>-0.0009382446548285477</v>
       </c>
       <c r="C6">
-        <v>0.08936144528712871</v>
+        <v>-0.05008568826995546</v>
       </c>
       <c r="D6">
-        <v>0.05133177875747982</v>
+        <v>-0.08148754914267746</v>
       </c>
       <c r="E6">
-        <v>0.001365366362192741</v>
+        <v>0.01197913966729487</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -802,16 +802,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.02139383528251347</v>
+        <v>-0.001797681046587206</v>
       </c>
       <c r="C7">
-        <v>0.08835779968403366</v>
+        <v>-0.02535617139352411</v>
       </c>
       <c r="D7">
-        <v>0.0396071633945963</v>
+        <v>-0.06624463548798452</v>
       </c>
       <c r="E7">
-        <v>0.007906291440840244</v>
+        <v>0.01804316291371549</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -819,16 +819,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.006659998083383531</v>
+        <v>0.001573588987999577</v>
       </c>
       <c r="C8">
-        <v>0.07555589814214662</v>
+        <v>-0.007247761693572724</v>
       </c>
       <c r="D8">
-        <v>0.04531878157972708</v>
+        <v>-0.04787727007490217</v>
       </c>
       <c r="E8">
-        <v>-0.07045649680652857</v>
+        <v>0.0325917450074757</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -836,16 +836,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.00479553978024282</v>
+        <v>-0.005307838933878989</v>
       </c>
       <c r="C9">
-        <v>0.1210569422164738</v>
+        <v>-0.01823138267129076</v>
       </c>
       <c r="D9">
-        <v>0.0561144486336011</v>
+        <v>-0.09400289003350637</v>
       </c>
       <c r="E9">
-        <v>-0.001604445803159864</v>
+        <v>0.02750612924412097</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -853,16 +853,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.2644293294498236</v>
+        <v>0.0013688583421931</v>
       </c>
       <c r="C10">
-        <v>-0.06418267152750064</v>
+        <v>-0.2290080422341326</v>
       </c>
       <c r="D10">
-        <v>-0.004797012275381227</v>
+        <v>0.1261577235901989</v>
       </c>
       <c r="E10">
-        <v>0.01261059236246129</v>
+        <v>-0.01006118011748656</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -870,16 +870,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.01205998021178515</v>
+        <v>-0.005415865104003804</v>
       </c>
       <c r="C11">
-        <v>0.08330806351962117</v>
+        <v>-0.02844421051687605</v>
       </c>
       <c r="D11">
-        <v>0.03243877454037328</v>
+        <v>-0.0874766387169236</v>
       </c>
       <c r="E11">
-        <v>0.04491889603058963</v>
+        <v>0.03913474970791832</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -887,16 +887,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.012068196597733</v>
+        <v>-0.001243141016029867</v>
       </c>
       <c r="C12">
-        <v>0.05763557233504149</v>
+        <v>-0.02430712911493357</v>
       </c>
       <c r="D12">
-        <v>0.02322717133561393</v>
+        <v>-0.05341193920767855</v>
       </c>
       <c r="E12">
-        <v>0.0375467242424716</v>
+        <v>0.01971065296611854</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -904,16 +904,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.005822726886977204</v>
+        <v>0.003295825566807079</v>
       </c>
       <c r="C13">
-        <v>0.1321361904073953</v>
+        <v>-0.01552624406422645</v>
       </c>
       <c r="D13">
-        <v>0.01768489998508785</v>
+        <v>-0.1129165893405342</v>
       </c>
       <c r="E13">
-        <v>-0.03941887020143271</v>
+        <v>0.03884511196970383</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -921,16 +921,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.01330586839028396</v>
+        <v>-0.003356447906761777</v>
       </c>
       <c r="C14">
-        <v>0.09866594471424828</v>
+        <v>-0.02855781532863552</v>
       </c>
       <c r="D14">
-        <v>0.05606544587827638</v>
+        <v>-0.07800596974266068</v>
       </c>
       <c r="E14">
-        <v>-0.007437547613963196</v>
+        <v>0.02560855158608656</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -938,16 +938,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.0004364633149859195</v>
+        <v>-0.003206649496348341</v>
       </c>
       <c r="C15">
-        <v>0.08941027876522062</v>
+        <v>-0.00922229715674954</v>
       </c>
       <c r="D15">
-        <v>0.0242213911495718</v>
+        <v>-0.07163964794683238</v>
       </c>
       <c r="E15">
-        <v>-0.004001245358719931</v>
+        <v>0.02383917619036639</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -955,16 +955,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-0.01143419830050635</v>
+        <v>-0.00310384579628537</v>
       </c>
       <c r="C16">
-        <v>0.06780877716566265</v>
+        <v>-0.02422285011615616</v>
       </c>
       <c r="D16">
-        <v>0.0288122408131001</v>
+        <v>-0.06453297854978338</v>
       </c>
       <c r="E16">
-        <v>0.03245099044598316</v>
+        <v>0.02507348506570178</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1023,16 +1023,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.01371363011300632</v>
+        <v>-0.001501885122606175</v>
       </c>
       <c r="C20">
-        <v>0.09930071796393523</v>
+        <v>-0.02467155451122359</v>
       </c>
       <c r="D20">
-        <v>0.04547841894157268</v>
+        <v>-0.08492923703200039</v>
       </c>
       <c r="E20">
-        <v>0.05750571966482766</v>
+        <v>0.02087119881737254</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1040,16 +1040,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>-0.008864512071734292</v>
+        <v>0.004465254363471773</v>
       </c>
       <c r="C21">
-        <v>0.08965448396208894</v>
+        <v>-0.01647529981919183</v>
       </c>
       <c r="D21">
-        <v>0.0186278219829533</v>
+        <v>-0.07325693758671845</v>
       </c>
       <c r="E21">
-        <v>-0.04931625781791211</v>
+        <v>0.007048098604119397</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1057,16 +1057,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.01090151302726608</v>
+        <v>-0.01754917244134906</v>
       </c>
       <c r="C22">
-        <v>0.2161739335855222</v>
+        <v>-0.02413948371597476</v>
       </c>
       <c r="D22">
-        <v>-0.1049041878348044</v>
+        <v>-0.1665174698880513</v>
       </c>
       <c r="E22">
-        <v>-0.363181440336631</v>
+        <v>0.02576012026338519</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1074,16 +1074,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.004127497302703276</v>
+        <v>-0.01789976166854942</v>
       </c>
       <c r="C23">
-        <v>0.2231980967156315</v>
+        <v>-0.02905415471370907</v>
       </c>
       <c r="D23">
-        <v>-0.1057522284544073</v>
+        <v>-0.1684508054988989</v>
       </c>
       <c r="E23">
-        <v>-0.3432846434876275</v>
+        <v>0.02414105138694323</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1091,16 +1091,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>-0.0123192469019434</v>
+        <v>-0.004078012871539196</v>
       </c>
       <c r="C24">
-        <v>0.07124014984021391</v>
+        <v>-0.02391468303063498</v>
       </c>
       <c r="D24">
-        <v>0.04565944891230464</v>
+        <v>-0.06687944696522338</v>
       </c>
       <c r="E24">
-        <v>0.0293415064892114</v>
+        <v>0.03300581546915487</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1108,16 +1108,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-0.01721649302669996</v>
+        <v>-0.005632864423255417</v>
       </c>
       <c r="C25">
-        <v>0.07340123616530132</v>
+        <v>-0.03067598215616317</v>
       </c>
       <c r="D25">
-        <v>0.02654114443490085</v>
+        <v>-0.07050691429964277</v>
       </c>
       <c r="E25">
-        <v>0.0309994288574395</v>
+        <v>0.02869431469242559</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1125,16 +1125,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.02654398229433288</v>
+        <v>-0.006311551939800358</v>
       </c>
       <c r="C26">
-        <v>0.0536824440354844</v>
+        <v>-0.02737340213781452</v>
       </c>
       <c r="D26">
-        <v>0.08293446029366416</v>
+        <v>-0.04735798738885744</v>
       </c>
       <c r="E26">
-        <v>-0.006098534776898096</v>
+        <v>0.04298055088889333</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1159,16 +1159,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.3246371367928385</v>
+        <v>-0.009006493923037453</v>
       </c>
       <c r="C28">
-        <v>-0.09783177515493557</v>
+        <v>-0.2934470817345171</v>
       </c>
       <c r="D28">
-        <v>-0.05247536692307435</v>
+        <v>0.1499996744245827</v>
       </c>
       <c r="E28">
-        <v>-0.03441923158050944</v>
+        <v>-0.03485166084318765</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1176,16 +1176,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.00915534495428655</v>
+        <v>-0.002435455970008732</v>
       </c>
       <c r="C29">
-        <v>0.1040219715370246</v>
+        <v>-0.02508847293969322</v>
       </c>
       <c r="D29">
-        <v>0.06163492981751815</v>
+        <v>-0.07907505238182899</v>
       </c>
       <c r="E29">
-        <v>0.01807329085652223</v>
+        <v>0.02895918944034489</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1193,16 +1193,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-0.01921853956258193</v>
+        <v>-0.005836669693956412</v>
       </c>
       <c r="C30">
-        <v>0.1518909614085462</v>
+        <v>-0.05112519523914483</v>
       </c>
       <c r="D30">
-        <v>0.04835651542517985</v>
+        <v>-0.1451485053390261</v>
       </c>
       <c r="E30">
-        <v>-0.04755242557335246</v>
+        <v>0.03491368878718221</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1210,16 +1210,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>-0.005112924737016289</v>
+        <v>-0.0001346334613884023</v>
       </c>
       <c r="C31">
-        <v>0.07572332106198028</v>
+        <v>-0.02072848843708053</v>
       </c>
       <c r="D31">
-        <v>0.0476457188790165</v>
+        <v>-0.07244112132468192</v>
       </c>
       <c r="E31">
-        <v>0.02903700177279185</v>
+        <v>0.02939134950320341</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1227,16 +1227,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-0.008005806999509891</v>
+        <v>-0.002125625916207374</v>
       </c>
       <c r="C32">
-        <v>0.09248314656406012</v>
+        <v>-0.02505876932543523</v>
       </c>
       <c r="D32">
-        <v>0.02145443878857594</v>
+        <v>-0.04887182034126013</v>
       </c>
       <c r="E32">
-        <v>-0.1063119698869005</v>
+        <v>0.03077310846779017</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1244,16 +1244,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>-0.0129335807369485</v>
+        <v>-0.00361828545151149</v>
       </c>
       <c r="C33">
-        <v>0.1049332843882896</v>
+        <v>-0.02914692418479021</v>
       </c>
       <c r="D33">
-        <v>0.05055429462774136</v>
+        <v>-0.09904318119316488</v>
       </c>
       <c r="E33">
-        <v>0.03472130727472417</v>
+        <v>0.04113374544788512</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1261,16 +1261,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.011843202017166</v>
+        <v>-0.005669335583640244</v>
       </c>
       <c r="C34">
-        <v>0.05337591398915384</v>
+        <v>-0.02364322313925628</v>
       </c>
       <c r="D34">
-        <v>0.01975385620571218</v>
+        <v>-0.05187088646586228</v>
       </c>
       <c r="E34">
-        <v>0.01824041247048033</v>
+        <v>0.0188113357404472</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1278,16 +1278,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-0.005431180997423306</v>
+        <v>-0.003894844861097063</v>
       </c>
       <c r="C35">
-        <v>0.06516159215059188</v>
+        <v>-0.0177143024368098</v>
       </c>
       <c r="D35">
-        <v>0.0235515044838784</v>
+        <v>-0.05145376763493571</v>
       </c>
       <c r="E35">
-        <v>0.02390663249010501</v>
+        <v>0.02036391515464351</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1295,16 +1295,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.0159069210358897</v>
+        <v>-0.004809125255489557</v>
       </c>
       <c r="C36">
-        <v>0.0554687367744742</v>
+        <v>-0.01685206788752493</v>
       </c>
       <c r="D36">
-        <v>0.0617663203136473</v>
+        <v>-0.03965659857635119</v>
       </c>
       <c r="E36">
-        <v>0.003243181952765458</v>
+        <v>0.02668650957744679</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1329,16 +1329,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.02242682810478686</v>
+        <v>0.002082311122205126</v>
       </c>
       <c r="C38">
-        <v>0.05986820845210068</v>
+        <v>-0.01737080305878644</v>
       </c>
       <c r="D38">
-        <v>0.0301480383688389</v>
+        <v>-0.05322537617706196</v>
       </c>
       <c r="E38">
-        <v>0.0343199110701058</v>
+        <v>0.02296232502726647</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1346,16 +1346,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>-0.004624486648226639</v>
+        <v>-0.01440302373047069</v>
       </c>
       <c r="C39">
-        <v>0.1188952565365387</v>
+        <v>-0.04038786738102553</v>
       </c>
       <c r="D39">
-        <v>0.05502157151009821</v>
+        <v>-0.1320852024950895</v>
       </c>
       <c r="E39">
-        <v>0.006745518852137629</v>
+        <v>0.04353090041575335</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1363,16 +1363,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.01678201323464383</v>
+        <v>-0.008481736950719878</v>
       </c>
       <c r="C40">
-        <v>0.06745966132590883</v>
+        <v>-0.03573999637830908</v>
       </c>
       <c r="D40">
-        <v>0.01787792389771047</v>
+        <v>-0.08658391334716463</v>
       </c>
       <c r="E40">
-        <v>-0.003175838770965791</v>
+        <v>0.04054699386816058</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1380,16 +1380,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>-0.02309064188360141</v>
+        <v>-0.0004041865523670737</v>
       </c>
       <c r="C41">
-        <v>0.05141827962487233</v>
+        <v>-0.02523098846861042</v>
       </c>
       <c r="D41">
-        <v>0.02361788040481458</v>
+        <v>-0.04479852351465911</v>
       </c>
       <c r="E41">
-        <v>0.03135867333328621</v>
+        <v>0.01260610046276866</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1414,16 +1414,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>-0.01636992472749036</v>
+        <v>-0.003504446194095517</v>
       </c>
       <c r="C43">
-        <v>0.04604573114544718</v>
+        <v>-0.02488500417194806</v>
       </c>
       <c r="D43">
-        <v>0.04197468626496312</v>
+        <v>-0.0430913729651141</v>
       </c>
       <c r="E43">
-        <v>0.03250507270796866</v>
+        <v>0.02255580969139442</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1431,16 +1431,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>-0.01149467000509046</v>
+        <v>-0.005377916517453309</v>
       </c>
       <c r="C44">
-        <v>0.1021978230342862</v>
+        <v>-0.02894543607434205</v>
       </c>
       <c r="D44">
-        <v>0.06742784499643246</v>
+        <v>-0.101993481398774</v>
       </c>
       <c r="E44">
-        <v>-0.05527219106918135</v>
+        <v>0.05301973104918137</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1465,16 +1465,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.001872222367662698</v>
+        <v>-0.0025461285563574</v>
       </c>
       <c r="C46">
-        <v>0.07247172830226978</v>
+        <v>-0.01347904333476452</v>
       </c>
       <c r="D46">
-        <v>0.0651549016379496</v>
+        <v>-0.07282114545597859</v>
       </c>
       <c r="E46">
-        <v>0.01186218565637618</v>
+        <v>0.01554194984472066</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1482,16 +1482,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.01760587304530878</v>
+        <v>-0.001902195977047376</v>
       </c>
       <c r="C47">
-        <v>0.07674772461994993</v>
+        <v>-0.02850912973792439</v>
       </c>
       <c r="D47">
-        <v>0.06582514360594938</v>
+        <v>-0.07192861062852696</v>
       </c>
       <c r="E47">
-        <v>0.03572603116147936</v>
+        <v>0.03791789246494976</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1499,16 +1499,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.02060001059752244</v>
+        <v>0.003669572502846768</v>
       </c>
       <c r="C48">
-        <v>0.06453481320882154</v>
+        <v>-0.02078995868385446</v>
       </c>
       <c r="D48">
-        <v>0.07939221354639286</v>
+        <v>-0.03893701916985101</v>
       </c>
       <c r="E48">
-        <v>0.01090340708700568</v>
+        <v>0.04008438928987675</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1516,16 +1516,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.01443284275984518</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04864250306954081</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.08834950579639421</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.04526925139341727</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1533,16 +1533,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>-0.008973227759273266</v>
+        <v>-0.0007148396032639333</v>
       </c>
       <c r="C50">
-        <v>0.08327726309534995</v>
+        <v>-0.02044153449402961</v>
       </c>
       <c r="D50">
-        <v>0.04323531285052991</v>
+        <v>-0.06792719056564889</v>
       </c>
       <c r="E50">
-        <v>0.02460106840236923</v>
+        <v>0.01736669306781596</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1550,16 +1550,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>-0.0004861393885236491</v>
+        <v>0.001807075195679296</v>
       </c>
       <c r="C51">
-        <v>0.06395153988733007</v>
+        <v>-6.997558176486533e-05</v>
       </c>
       <c r="D51">
-        <v>0.04400464896681441</v>
+        <v>-0.03225930884312297</v>
       </c>
       <c r="E51">
-        <v>-0.04077161528725148</v>
+        <v>0.02045440898106468</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1584,16 +1584,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>-0.0345950759822739</v>
+        <v>9.992265490988755e-05</v>
       </c>
       <c r="C53">
-        <v>0.1015528740003833</v>
+        <v>-0.08132927897973702</v>
       </c>
       <c r="D53">
-        <v>0.04362282747358926</v>
+        <v>-0.1358047992973843</v>
       </c>
       <c r="E53">
-        <v>0.05733675317084747</v>
+        <v>0.05869504156930441</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1601,16 +1601,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>-0.01301348088876177</v>
+        <v>-8.36124495899161e-05</v>
       </c>
       <c r="C54">
-        <v>0.07793418214762483</v>
+        <v>-0.02348821117349464</v>
       </c>
       <c r="D54">
-        <v>0.01917570893853102</v>
+        <v>-0.07112532593245151</v>
       </c>
       <c r="E54">
-        <v>0.04561845251982179</v>
+        <v>0.008591603478669581</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1618,16 +1618,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>-0.01671174185318264</v>
+        <v>-0.005619360683797744</v>
       </c>
       <c r="C55">
-        <v>0.06972256735409155</v>
+        <v>-0.04366958375244039</v>
       </c>
       <c r="D55">
-        <v>0.06163557654080257</v>
+        <v>-0.0913260103744952</v>
       </c>
       <c r="E55">
-        <v>0.04390123586748489</v>
+        <v>0.04962057946232862</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1635,16 +1635,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>-0.0151691901152263</v>
+        <v>0.001936487073697504</v>
       </c>
       <c r="C56">
-        <v>0.1357439001468118</v>
+        <v>-0.07483523903724663</v>
       </c>
       <c r="D56">
-        <v>0.05659572429199859</v>
+        <v>-0.1597811382117339</v>
       </c>
       <c r="E56">
-        <v>0.01559803869474874</v>
+        <v>0.08314718781859212</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1669,16 +1669,16 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>-0.01930175765658157</v>
+        <v>-0.008709242142194325</v>
       </c>
       <c r="C58">
-        <v>0.2471277121908541</v>
+        <v>-0.03693054389820816</v>
       </c>
       <c r="D58">
-        <v>-0.02997669282115528</v>
+        <v>-0.1563862838682301</v>
       </c>
       <c r="E58">
-        <v>-0.2177275129176069</v>
+        <v>0.02691581716815953</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1686,16 +1686,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>-0.289385059980531</v>
+        <v>-0.01148144069008912</v>
       </c>
       <c r="C59">
-        <v>-0.002951790661849099</v>
+        <v>-0.2810872315909222</v>
       </c>
       <c r="D59">
-        <v>-0.01927507266382746</v>
+        <v>0.08482378669252343</v>
       </c>
       <c r="E59">
-        <v>-0.06666165648885056</v>
+        <v>-0.009180282642626462</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1703,16 +1703,16 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>-0.1443076529497519</v>
+        <v>-0.008806075844588545</v>
       </c>
       <c r="C60">
-        <v>0.1619479184281003</v>
+        <v>-0.1702451159205722</v>
       </c>
       <c r="D60">
-        <v>0.02204086916940154</v>
+        <v>-0.1481482211017568</v>
       </c>
       <c r="E60">
-        <v>0.1656655704876867</v>
+        <v>0.01444195822448223</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1720,16 +1720,16 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>-0.01009412415528471</v>
+        <v>-0.01598243570108345</v>
       </c>
       <c r="C61">
-        <v>0.1040511531307432</v>
+        <v>-0.03892419728035057</v>
       </c>
       <c r="D61">
-        <v>0.06682315636123157</v>
+        <v>-0.101772696276368</v>
       </c>
       <c r="E61">
-        <v>0.04209548973021883</v>
+        <v>0.04951680795842269</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1737,16 +1737,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.1825283543741557</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.007031195735511192</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.03728357081640594</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01154977733158897</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1754,16 +1754,16 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>-0.01556030630867488</v>
+        <v>-0.002583831654022969</v>
       </c>
       <c r="C63">
-        <v>0.05882686772262007</v>
+        <v>-0.03339155312654762</v>
       </c>
       <c r="D63">
-        <v>0.08742646734414553</v>
+        <v>-0.05521308713037418</v>
       </c>
       <c r="E63">
-        <v>0.006806726596728595</v>
+        <v>0.04381117998303254</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1771,16 +1771,16 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.0010699735751562</v>
+        <v>-0.008172236520398082</v>
       </c>
       <c r="C64">
-        <v>0.09723678327102661</v>
+        <v>-0.02896447558631098</v>
       </c>
       <c r="D64">
-        <v>0.05644432150089688</v>
+        <v>-0.09136897350536517</v>
       </c>
       <c r="E64">
-        <v>0.05299319320531769</v>
+        <v>0.02380722284461204</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1788,16 +1788,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>-0.01912081912119247</v>
+        <v>-0.0004129631872666986</v>
       </c>
       <c r="C65">
-        <v>0.1128293471414296</v>
+        <v>-0.04136411866408109</v>
       </c>
       <c r="D65">
-        <v>0.03140016331672336</v>
+        <v>-0.09098519217512584</v>
       </c>
       <c r="E65">
-        <v>0.07311809994686262</v>
+        <v>0.01003663047624396</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1805,16 +1805,16 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.004859355105850204</v>
+        <v>-0.01042840581853653</v>
       </c>
       <c r="C66">
-        <v>0.1663111133137439</v>
+        <v>-0.04455021198747692</v>
       </c>
       <c r="D66">
-        <v>0.05294500072751831</v>
+        <v>-0.1747125498519554</v>
       </c>
       <c r="E66">
-        <v>-0.02209894950241326</v>
+        <v>0.04784442705313185</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1822,16 +1822,16 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>-0.02932168228730224</v>
+        <v>0.001947322824504236</v>
       </c>
       <c r="C67">
-        <v>0.04383043922118854</v>
+        <v>-0.02901713040093466</v>
       </c>
       <c r="D67">
-        <v>0.04165704766370999</v>
+        <v>-0.05144515560970178</v>
       </c>
       <c r="E67">
-        <v>0.07968792085877319</v>
+        <v>0.02999414213843756</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1839,16 +1839,16 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>-0.3079819622211383</v>
+        <v>-0.01118799327019687</v>
       </c>
       <c r="C68">
-        <v>-0.02748849781082865</v>
+        <v>-0.2743460473205357</v>
       </c>
       <c r="D68">
-        <v>-0.05299623047482836</v>
+        <v>0.1262070469528206</v>
       </c>
       <c r="E68">
-        <v>-0.05171388384528108</v>
+        <v>-0.04116396770569943</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1856,16 +1856,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>-0.01466750215856642</v>
+        <v>-0.004403385361928132</v>
       </c>
       <c r="C69">
-        <v>0.05816758536686899</v>
+        <v>-0.01573054069295864</v>
       </c>
       <c r="D69">
-        <v>0.04708221134636503</v>
+        <v>-0.04908395562960619</v>
       </c>
       <c r="E69">
-        <v>0.05261392053415455</v>
+        <v>0.02138080167079482</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1890,16 +1890,16 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>-0.2890761325958022</v>
+        <v>-0.006718574689266391</v>
       </c>
       <c r="C71">
-        <v>-0.0360772400304234</v>
+        <v>-0.2635759447633915</v>
       </c>
       <c r="D71">
-        <v>-0.007597259497911752</v>
+        <v>0.1175882802149198</v>
       </c>
       <c r="E71">
-        <v>-0.04248296781539759</v>
+        <v>-0.02221312493361005</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1907,16 +1907,16 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>-0.02469941095974983</v>
+        <v>-0.00974527681943555</v>
       </c>
       <c r="C72">
-        <v>0.1346598903001926</v>
+        <v>-0.0714127190216646</v>
       </c>
       <c r="D72">
-        <v>0.0338350987515063</v>
+        <v>-0.1280433412135642</v>
       </c>
       <c r="E72">
-        <v>0.02831583537898452</v>
+        <v>0.0234809150713177</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1924,16 +1924,16 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>-0.125023064539833</v>
+        <v>-0.01582318015294745</v>
       </c>
       <c r="C73">
-        <v>0.1432098153239942</v>
+        <v>-0.1792384756114093</v>
       </c>
       <c r="D73">
-        <v>0.1002359922977187</v>
+        <v>-0.1688951078724766</v>
       </c>
       <c r="E73">
-        <v>0.2286643157631112</v>
+        <v>0.04986230599652071</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1941,16 +1941,16 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>-0.0225624244292034</v>
+        <v>-0.005336152089779608</v>
       </c>
       <c r="C74">
-        <v>0.08796920081950761</v>
+        <v>-0.05107867848245391</v>
       </c>
       <c r="D74">
-        <v>0.05788867047484114</v>
+        <v>-0.1057116734183993</v>
       </c>
       <c r="E74">
-        <v>0.03948818776332157</v>
+        <v>0.03238668784876708</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1958,16 +1958,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>-0.03402406910132417</v>
+        <v>-0.007839132199004105</v>
       </c>
       <c r="C75">
-        <v>0.1416468043286164</v>
+        <v>-0.08192867763633994</v>
       </c>
       <c r="D75">
-        <v>0.04688677929943372</v>
+        <v>-0.1761192021777948</v>
       </c>
       <c r="E75">
-        <v>0.07249114010808214</v>
+        <v>0.06765474480514735</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1975,16 +1975,16 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>-0.01829604957978156</v>
+        <v>0.01069434183313534</v>
       </c>
       <c r="C76">
-        <v>0.1022914784229214</v>
+        <v>-0.06484556091964377</v>
       </c>
       <c r="D76">
-        <v>0.06975443436688744</v>
+        <v>-0.1429988842078001</v>
       </c>
       <c r="E76">
-        <v>0.0625295408912207</v>
+        <v>0.07615277692312931</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1992,16 +1992,16 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>-0.000483520522174723</v>
+        <v>0.003613778995917999</v>
       </c>
       <c r="C77">
-        <v>0.3412129622429348</v>
+        <v>-0.04877422458717564</v>
       </c>
       <c r="D77">
-        <v>-0.8662965358322461</v>
+        <v>-0.3215223479169712</v>
       </c>
       <c r="E77">
-        <v>0.2513693399545211</v>
+        <v>-0.9344686440899084</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2009,16 +2009,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>-0.02395206113731346</v>
+        <v>-0.0003894740010686273</v>
       </c>
       <c r="C78">
-        <v>0.1190214250005306</v>
+        <v>-0.04611875471964372</v>
       </c>
       <c r="D78">
-        <v>0.1378338026325547</v>
+        <v>-0.09724655216661285</v>
       </c>
       <c r="E78">
-        <v>-0.08713707651353481</v>
+        <v>0.05673040992764118</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2026,16 +2026,16 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>-0.02217926650382252</v>
+        <v>0.02679651365389058</v>
       </c>
       <c r="C79">
-        <v>0.1292423231747043</v>
+        <v>-0.07395283574771458</v>
       </c>
       <c r="D79">
-        <v>0.05804195339554252</v>
+        <v>-0.1342684744663411</v>
       </c>
       <c r="E79">
-        <v>0.02148926625327419</v>
+        <v>0.0442045137434318</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2043,16 +2043,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>-0.02031810222929775</v>
+        <v>0.004310334223478687</v>
       </c>
       <c r="C80">
-        <v>0.05430688330730297</v>
+        <v>-0.02893108736600317</v>
       </c>
       <c r="D80">
-        <v>0.04253191857335743</v>
+        <v>-0.04068755355101655</v>
       </c>
       <c r="E80">
-        <v>-0.02267764955195422</v>
+        <v>0.03381117779862861</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2060,16 +2060,16 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>-0.001150570673142843</v>
+        <v>-0.0005160140908310384</v>
       </c>
       <c r="C81">
-        <v>0.09532406183739527</v>
+        <v>-0.03311872277799232</v>
       </c>
       <c r="D81">
-        <v>0.06373110264086641</v>
+        <v>-0.1131499019849037</v>
       </c>
       <c r="E81">
-        <v>0.04386618417715199</v>
+        <v>0.05277675920995277</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2077,16 +2077,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>-0.01759645000531854</v>
+        <v>0.005472663292059465</v>
       </c>
       <c r="C82">
-        <v>0.0719318072707168</v>
+        <v>-0.06238063408802456</v>
       </c>
       <c r="D82">
-        <v>0.06266393215961297</v>
+        <v>-0.1117190401729461</v>
       </c>
       <c r="E82">
-        <v>0.03433123729514961</v>
+        <v>0.06177855835009219</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2094,16 +2094,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>-0.003121364889735785</v>
+        <v>-0.006868129193584829</v>
       </c>
       <c r="C83">
-        <v>-0.02190024916567839</v>
+        <v>-0.000606176902317935</v>
       </c>
       <c r="D83">
-        <v>-0.128913480597335</v>
+        <v>0.01196012448343111</v>
       </c>
       <c r="E83">
-        <v>-0.5595883923723149</v>
+        <v>-0.04699015845937961</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2111,16 +2111,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.003805859665905587</v>
+        <v>0.01474411695319085</v>
       </c>
       <c r="C84">
-        <v>0.09514527333734346</v>
+        <v>-0.01790842383751906</v>
       </c>
       <c r="D84">
-        <v>0.02369799300023123</v>
+        <v>-0.04324969197430038</v>
       </c>
       <c r="E84">
-        <v>-0.06290115450394483</v>
+        <v>0.05580364116455503</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2128,16 +2128,16 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>-0.007818286582289509</v>
+        <v>0.01509190130536287</v>
       </c>
       <c r="C85">
-        <v>0.1035042127576172</v>
+        <v>-0.04818371780251378</v>
       </c>
       <c r="D85">
-        <v>0.04046047073719539</v>
+        <v>-0.1346012536138469</v>
       </c>
       <c r="E85">
-        <v>0.04494125283184547</v>
+        <v>0.05617831334015319</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2145,16 +2145,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>-0.0119301106005717</v>
+        <v>-0.004104707584213805</v>
       </c>
       <c r="C86">
-        <v>0.08824305809497018</v>
+        <v>-0.02023531904118815</v>
       </c>
       <c r="D86">
-        <v>0.01676827198805558</v>
+        <v>-0.06541506159274706</v>
       </c>
       <c r="E86">
-        <v>-0.02371369923497307</v>
+        <v>0.02574197796304874</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2162,16 +2162,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>-0.009555042867011108</v>
+        <v>-0.008722449565647763</v>
       </c>
       <c r="C87">
-        <v>0.1376069361682745</v>
+        <v>-0.03791116500475378</v>
       </c>
       <c r="D87">
-        <v>0.05240984015926337</v>
+        <v>-0.121861948796909</v>
       </c>
       <c r="E87">
-        <v>-0.115854440102321</v>
+        <v>0.0105651197140124</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2179,16 +2179,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>-0.02639516808973835</v>
+        <v>-0.01540686902845422</v>
       </c>
       <c r="C88">
-        <v>0.06194522368010544</v>
+        <v>-0.04467534286643324</v>
       </c>
       <c r="D88">
-        <v>0.0587585197254023</v>
+        <v>-0.06352367086100379</v>
       </c>
       <c r="E88">
-        <v>0.06727640335526258</v>
+        <v>0.02749949365990551</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2196,16 +2196,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>-0.3963260355568082</v>
+        <v>-0.02059047672459051</v>
       </c>
       <c r="C89">
-        <v>-0.05647787984757122</v>
+        <v>-0.3754680719380507</v>
       </c>
       <c r="D89">
-        <v>-0.01591537979228311</v>
+        <v>0.1517275785583393</v>
       </c>
       <c r="E89">
-        <v>-0.0008026681646560928</v>
+        <v>-0.04103924498877436</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2213,16 +2213,16 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>-0.3175266537275769</v>
+        <v>-0.007333495767077416</v>
       </c>
       <c r="C90">
-        <v>-0.03053551979117206</v>
+        <v>-0.3108035591268</v>
       </c>
       <c r="D90">
-        <v>-0.01452277625474783</v>
+        <v>0.11609616899818</v>
       </c>
       <c r="E90">
-        <v>-0.08829181858872798</v>
+        <v>-0.01763526335549596</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2230,16 +2230,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>-0.03452007560205971</v>
+        <v>0.0006140253044573944</v>
       </c>
       <c r="C91">
-        <v>0.07989265730266226</v>
+        <v>-0.06942446907954372</v>
       </c>
       <c r="D91">
-        <v>0.0434093325846262</v>
+        <v>-0.08647759206402812</v>
       </c>
       <c r="E91">
-        <v>0.008188564794971851</v>
+        <v>0.04996501605543099</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2247,16 +2247,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>-0.3673648145380505</v>
+        <v>-0.01886669797249293</v>
       </c>
       <c r="C92">
-        <v>-0.06217267878128448</v>
+        <v>-0.332585053756645</v>
       </c>
       <c r="D92">
-        <v>-0.0461640886281991</v>
+        <v>0.1490683271849988</v>
       </c>
       <c r="E92">
-        <v>0.03027090501239449</v>
+        <v>-0.06607116648888964</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2264,16 +2264,16 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>-0.3158902574642296</v>
+        <v>-0.005451623784425117</v>
       </c>
       <c r="C93">
-        <v>-0.07600205597923806</v>
+        <v>-0.2910996410281626</v>
       </c>
       <c r="D93">
-        <v>-0.01078367707764234</v>
+        <v>0.1522683402863667</v>
       </c>
       <c r="E93">
-        <v>-0.05923780657764063</v>
+        <v>-0.01482023923952138</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2281,16 +2281,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>-0.03180488572890021</v>
+        <v>0.002247497219603595</v>
       </c>
       <c r="C94">
-        <v>0.163407076666358</v>
+        <v>-0.1016825070475549</v>
       </c>
       <c r="D94">
-        <v>0.1072978510014031</v>
+        <v>-0.1627454938885087</v>
       </c>
       <c r="E94">
-        <v>-0.02575952544886645</v>
+        <v>0.08626189523542901</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2298,16 +2298,16 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>-0.03321523654955844</v>
+        <v>-0.005839682065388633</v>
       </c>
       <c r="C95">
-        <v>0.1296843619140034</v>
+        <v>-0.06186043951827934</v>
       </c>
       <c r="D95">
-        <v>0.06393907630423384</v>
+        <v>-0.1343955903159501</v>
       </c>
       <c r="E95">
-        <v>0.07938081498349715</v>
+        <v>0.05425707198247175</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2332,16 +2332,16 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>-0.002529337879295984</v>
+        <v>-0.002928754698987283</v>
       </c>
       <c r="C97">
-        <v>0.003009914488880348</v>
+        <v>-0.03302508581808522</v>
       </c>
       <c r="D97">
-        <v>0.01002108972006737</v>
+        <v>-0.05389295234210859</v>
       </c>
       <c r="E97">
-        <v>0.005163944204613655</v>
+        <v>0.009887250750077377</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2349,16 +2349,16 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>-0.1124854810832099</v>
+        <v>-0.009071353483951385</v>
       </c>
       <c r="C98">
-        <v>0.1685219443618697</v>
+        <v>-0.1666772143700468</v>
       </c>
       <c r="D98">
-        <v>0.07564543160884915</v>
+        <v>-0.1401808017399144</v>
       </c>
       <c r="E98">
-        <v>0.18174518003179</v>
+        <v>0.07851077407191859</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2366,16 +2366,16 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.9802817803376666</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.0387496777062703</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.004604109768012783</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.003743020518423883</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2400,16 +2400,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>-0.009152184046328643</v>
+        <v>-0.002390347588027707</v>
       </c>
       <c r="C101">
-        <v>0.1020206195417612</v>
+        <v>-0.02512388710023035</v>
       </c>
       <c r="D101">
-        <v>0.06117671941099151</v>
+        <v>-0.07792785019825592</v>
       </c>
       <c r="E101">
-        <v>0.01639629856616766</v>
+        <v>0.02760192888357299</v>
       </c>
     </row>
     <row r="102" spans="1:5">
